--- a/queens/config/templates/dukes_ch_2.xlsx
+++ b/queens/config/templates/dukes_ch_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\PycharmProjects\uk_energy_data_api\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\AppData\Local\queens\queens\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4624D-CF2C-4DDF-862F-58EFB52813B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804E0E7-F67B-4EEF-9B81-FDBDDFE838F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
@@ -971,11 +971,12 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Colore 1 2" xfId="19" xr:uid="{AB28A018-B116-4807-AD53-D336FCC42037}"/>
@@ -1387,17 +1388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2766,15 +2765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B64E19E-3D03-4D18-A8D3-625E632D0784}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3913,13 +3912,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F192018-8122-4F19-A3A8-7F887E8EE6FA}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -5141,13 +5143,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FB2FF3-339D-4212-9F35-64EC4D87C409}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6355,11 +6360,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C0385-B298-465E-BE89-9B3F85EFE2C7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6523,133 +6533,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32669E1E-5E72-47A9-A395-802B05B6BA7C}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="1"/>
@@ -6657,162 +6671,162 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
